--- a/medicine/Psychotrope/Grignolino/Grignolino.xlsx
+++ b/medicine/Psychotrope/Grignolino/Grignolino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le grignolino est un cépage italien de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il provient du nord de l'Italie.
 Il est classé cépage d'appoint en DOC Grignolino del Monferrato Casalese et Grignolino d'Asti. 
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc à liseré rosé.
 Jeunes feuilles duveteuses à plages bronzées.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque tardive : 20 - 25 jours après le chasselas.
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont de taille moyenne. La grappe est cylindro-conique, souvent ailée. Le cépage est de bonne vigueur mais d'une bonne production irrégulière. Il est sensible à l'oïdium mais moins attaqué par le mildiou.
 Il donne des vins sec d'un rouge rubis peu prononcée, délicatement parfumé et légèrement tannique. Il est vinifié souvent en assemblage avec le freisa ou le Pinot noir.
@@ -640,7 +660,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grignolino est connu sous les noms de arlandino, balestra, barbesino, barbesinone, barbezina, barbisone d´Espagna, barbosina de Bologne, balestra, girodino, grignolino Pisano, neretto di Marengo, nebbiolo Rosato, pollasecca, rosetta, rossetto et verbesino.
 </t>
